--- a/misc/SS Indices.xlsx
+++ b/misc/SS Indices.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Desktop\Projects\personalFinances\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE61C2-2147-41E1-9F0D-C1DEAA022163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF725F63-791D-4BCD-9564-86E3C49EAA12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F9E4B9C1-D880-482F-8ACB-3D62D60BF1E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{F9E4B9C1-D880-482F-8ACB-3D62D60BF1E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Age Index" sheetId="1" r:id="rId1"/>
     <sheet name="Wage Index" sheetId="2" r:id="rId2"/>
+    <sheet name="Bend Points" sheetId="3" r:id="rId3"/>
+    <sheet name="Max Earnings" sheetId="4" r:id="rId4"/>
+    <sheet name="COLA" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Wage Index'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Wage Index'!$B$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,28 +41,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Wages</t>
   </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>Std</t>
-  </si>
-  <si>
-    <t>&lt;-----</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +77,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,11 +97,41 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD4D4D4"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -108,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -121,8 +154,39 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -815,7 +879,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -846,220 +910,246 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="10"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33470209973753279"/>
+                  <c:y val="1.7025736366287549E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Wage Index'!$A$40:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Wage Index'!$C$3:$C$70</c:f>
+              <c:f>'Wage Index'!$E$40:$E$70</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6.2218665599679923E-2</c:v>
+                  <c:v>2.6916020507921821</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5870205695989661E-2</c:v>
+                  <c:v>2.5727621007819104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1601559513798634E-3</c:v>
+                  <c:v>2.4803311082176456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.620298893409891E-2</c:v>
+                  <c:v>2.3587965688005714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9945236018222445E-2</c:v>
+                  <c:v>2.3386833426491624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0959471854510756E-2</c:v>
+                  <c:v>2.2775557990749165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8090243071956564E-3</c:v>
+                  <c:v>2.1897812080308721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9539985845718393E-2</c:v>
+                  <c:v>2.0876822863405353</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9244774106540703E-2</c:v>
+                  <c:v>1.9725803981623276</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9874623170756056E-2</c:v>
+                  <c:v>1.8744729992682279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0073897170374471E-2</c:v>
+                  <c:v>1.7755258970838048</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.452346553572271E-2</c:v>
+                  <c:v>1.6824846166142431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.086757160013077E-2</c:v>
+                  <c:v>1.6432817405546214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8005733864764784E-2</c:v>
+                  <c:v>1.6269651020432101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0025071264209862E-2</c:v>
+                  <c:v>1.5881423574671327</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5702702921617719E-2</c:v>
+                  <c:v>1.5175930016788899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8730051559047434E-2</c:v>
+                  <c:v>1.4640239721115558</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.7791433945467929E-2</c:v>
+                  <c:v>1.3996899466280788</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9625366489303824E-2</c:v>
+                  <c:v>1.3389270465293319</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.024699979308922E-2</c:v>
+                  <c:v>1.3088189007999762</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.8000948118231568E-2</c:v>
+                  <c:v>1.328859015892518</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.2569738428327026E-2</c:v>
+                  <c:v>1.2981765774827991</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.944465552178313E-2</c:v>
+                  <c:v>1.2587361774571708</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.473265294940945E-2</c:v>
+                  <c:v>1.2206216507636107</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.9003072673596622E-2</c:v>
+                  <c:v>1.2052173668958583</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.9931848332191784E-2</c:v>
+                  <c:v>1.1639032028212504</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.941047749155361E-2</c:v>
+                  <c:v>1.1247719529641489</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.7478910158458989E-2</c:v>
+                  <c:v>1.1122039219072346</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.0073923337857353E-2</c:v>
+                  <c:v>1.0750786586115904</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10066280629018687</c:v>
+                  <c:v>1.0374755013826615</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.5052239510349876E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.8715397203561439E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.8784427569878783E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.2605331120348255E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.9681064240710819E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.3774476354101273E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.9251323229412503E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.9593897602363315E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.6191581403563831E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.7265586138088391E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.1523959727851176E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.60023492048545E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.6839098123995209E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.0083726502966099E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.8905392529485114E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.8350923635577701E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.2338656749070234E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.5728335107326554E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.5299929372782941E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.3856454491115064E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.0028880454116873E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.4445380726444643E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.6487665474336692E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.659026804736798E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.5963054631106504E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.5381785554524434E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.3004057865418259E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-1.5080693175778315E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.3635026961596584E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.1333333173360733E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.1225504372887514E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.2781332472355134E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.5496219938620621E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.4790385512349919E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.1300113953349733E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.4532601868955126E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.6244862822123691E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.7475501382661536E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,6 +1193,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1164,6 +1255,1920 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155643312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33470209973753279"/>
+                  <c:y val="1.7025736366287549E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bend Points'!$A$1:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bend Points'!$D$1:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3653</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3689</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3779</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3955</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4586</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4517</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4768</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4917</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4980</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5157</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5397</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5583</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5785</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD56-4970-AAB7-FB886494885D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="155643312"/>
+        <c:axId val="155642480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="155643312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155642480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="155642480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155643312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4577209098862645E-2"/>
+                  <c:y val="0.12407990667833188"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bend Points'!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8F1-4233-9297-5B32E877E231}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="170395279"/>
+        <c:axId val="170396527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="170395279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170396527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="170396527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170395279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1664479440069992E-2"/>
+                  <c:y val="0.26305592009332168"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Max Earnings'!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Max Earnings'!$C$1:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>142800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E24-4874-A0C0-1478FFB02002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173995839"/>
+        <c:axId val="173998751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="173995839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173998751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="173998751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173995839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.146084864391951E-2"/>
+                  <c:y val="-0.40260316418780984"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>COLA!$A$1:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>COLA!$C$1:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4A3-4B6C-820F-7273C3369B75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1620769679"/>
+        <c:axId val="1620768015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1620769679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620768015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1620768015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1201,7 +3206,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155643312"/>
+        <c:crossAx val="1620769679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1337,6 +3342,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1854,6 +4019,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2414,13 +6643,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
@@ -2431,6 +6660,167 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE99443-A239-42B9-80FB-78459D073B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DA0B19-B4E6-4E1A-9A95-F61C5B126675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1119DA0-46AC-46E8-A4AA-4011CEFF5432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83826</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388626</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1F1AC8-1758-4C5D-9C42-7F6162A92D04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B61503-3CC3-4001-B42F-856181F9D106}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,871 +7514,2900 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15AFF91-B53B-4523-808B-5D2B3BB7729D}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E69" sqref="E69:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2">
         <v>1951</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>2799.16</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="E2">
+        <f t="shared" ref="E2:E65" si="0">$C$70/C2</f>
+        <v>19.327223166950084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2">
         <v>1952</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>2973.32</v>
       </c>
-      <c r="C3" s="4">
-        <f>B3/B2-1</f>
+      <c r="D3" s="4">
+        <f>C3/C2-1</f>
         <v>6.2218665599679923E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>18.195145493925981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2">
         <v>1953</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>3139.44</v>
       </c>
-      <c r="C4" s="4">
-        <f t="shared" ref="C4:C67" si="0">B4/B3-1</f>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D67" si="1">C4/C3-1</f>
         <v>5.5870205695989661E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>17.232369467166119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2">
         <v>1954</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>3155.64</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1601559513798634E-3</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>5.1601559513798634E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+        <v>17.143904247632811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2">
         <v>1955</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>3301.44</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>4.620298893409891E-2</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>4.620298893409891E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+        <v>16.386785766211108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2">
         <v>1956</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>3532.36</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9945236018222445E-2</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>6.9945236018222445E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+        <v>15.31553692149158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2">
         <v>1957</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>3641.72</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0959471854510756E-2</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.0959471854510756E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+        <v>14.855614929209276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2">
         <v>1958</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>3673.8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>8.8090243071956564E-3</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>8.8090243071956564E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+        <v>14.725894169524741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
         <v>1959</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>3855.8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9539985845718393E-2</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>4.9539985845718393E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+        <v>14.030808133201928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2">
         <v>1960</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>4007.12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9244774106540703E-2</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.9244774106540703E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+        <v>13.500965780909979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2">
         <v>1961</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>4086.76</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9874623170756056E-2</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>1.9874623170756056E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+        <v>13.237868140042478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2">
         <v>1962</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>4291.3999999999996</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>5.0073897170374471E-2</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>5.0073897170374471E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+        <v>12.60660623572727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2">
         <v>1963</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>4396.6400000000003</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>2.452346553572271E-2</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>2.452346553572271E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+        <v>12.304848702645655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2">
         <v>1964</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>4576.32</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>4.086757160013077E-2</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>4.086757160013077E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+        <v>11.821723568281939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
         <v>1965</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>4658.72</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8005733864764784E-2</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.8005733864764784E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+        <v>11.612629649345742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2">
         <v>1966</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>4938.3599999999997</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
+        <f t="shared" si="1"/>
+        <v>6.0025071264209862E-2</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>6.0025071264209862E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+        <v>10.955051879571355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2">
         <v>1967</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>5213.4399999999996</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5702702921617719E-2</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>5.5702702921617719E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+        <v>10.377023615885097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2">
         <v>1968</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>5571.76</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8730051559047434E-2</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>6.8730051559047434E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+        <v>9.7096770140853152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2">
         <v>1969</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>5893.76</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7791433945467929E-2</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>5.7791433945467929E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+        <v>9.1791979992398733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2">
         <v>1970</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>6186.24</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9625366489303824E-2</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
-        <v>4.9625366489303824E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+        <v>8.7452135707635001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2">
         <v>1971</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>6497.08</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
+        <f t="shared" si="1"/>
+        <v>5.024699979308922E-2</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
-        <v>5.024699979308922E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+        <v>8.3268160465932386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2">
         <v>1972</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>7133.8</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
+        <f t="shared" si="1"/>
+        <v>9.8000948118231568E-2</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
-        <v>9.8000948118231568E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+        <v>7.583614623342398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2">
         <v>1973</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="1">
         <v>7580.16</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
+        <f t="shared" si="1"/>
+        <v>6.2569738428327026E-2</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
-        <v>6.2569738428327026E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+        <v>7.1370511968085104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2">
         <v>1974</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="1">
         <v>8030.76</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
+        <f t="shared" si="1"/>
+        <v>5.944465552178313E-2</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
-        <v>5.944465552178313E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+        <v>6.7365965363178573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2">
         <v>1975</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C26" s="1">
         <v>8630.92</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
+        <f t="shared" si="1"/>
+        <v>7.473265294940945E-2</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
-        <v>7.473265294940945E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+        <v>6.2681602888220489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2">
         <v>1976</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="1">
         <v>9226.48</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9003072673596622E-2</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
-        <v>6.9003072673596622E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+        <v>5.8635568494160291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2">
         <v>1977</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="1">
         <v>9779.44</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>5.9931848332191784E-2</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
-        <v>5.9931848332191784E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+        <v>5.532013080503587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2">
         <v>1978</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="1">
         <v>10556.03</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
+        <f t="shared" si="1"/>
+        <v>7.941047749155361E-2</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
-        <v>7.941047749155361E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+        <v>5.1250318538314117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2">
         <v>1979</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>11479.46</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
+        <f t="shared" si="1"/>
+        <v>8.7478910158458989E-2</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
-        <v>8.7478910158458989E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+        <v>4.7127643634805123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
         <v>1980</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>12513.46</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
+        <f t="shared" si="1"/>
+        <v>9.0073923337857353E-2</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
-        <v>9.0073923337857353E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+        <v>4.323343823370994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2">
         <v>1981</v>
       </c>
-      <c r="B32" s="1">
+      <c r="C32" s="1">
         <v>13773.1</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10066280629018687</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="0"/>
-        <v>0.10066280629018687</v>
-      </c>
-      <c r="E32" t="s">
+        <v>3.9279457783650735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1982</v>
+      </c>
+      <c r="C33" s="1">
+        <v>14531.34</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5052239510349876E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>3.7229870060159627</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1983</v>
+      </c>
+      <c r="C34" s="1">
+        <v>15239.24</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8715397203561439E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>3.5500451466083609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1984</v>
+      </c>
+      <c r="C35" s="1">
+        <v>16135.07</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="1"/>
+        <v>5.8784427569878783E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>3.3529442388536275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1985</v>
+      </c>
+      <c r="C36" s="1">
+        <v>16822.509999999998</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2605331120348255E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>3.2159285386069025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1986</v>
+      </c>
+      <c r="C37" s="1">
+        <v>17321.82</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9681064240710819E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>3.1232278132436431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1987</v>
+      </c>
+      <c r="C38" s="1">
+        <v>18426.509999999998</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
+        <v>6.3774476354101273E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>2.9359867929412569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1988</v>
+      </c>
+      <c r="C39" s="1">
+        <v>19334.04</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9251323229412503E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>2.7981730667775588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1989</v>
+      </c>
+      <c r="C40" s="1">
+        <v>20099.55</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9593897602363315E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>2.6916020507921821</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>29</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1990</v>
+      </c>
+      <c r="C41" s="1">
+        <v>21027.98</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6191581403563831E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>2.5727621007819104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1991</v>
+      </c>
+      <c r="C42" s="1">
+        <v>21811.599999999999</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7265586138088391E-2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>2.4803311082176456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1992</v>
+      </c>
+      <c r="C43" s="1">
+        <v>22935.42</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1523959727851176E-2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>2.3587965688005714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1993</v>
+      </c>
+      <c r="C44" s="1">
+        <v>23132.67</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="1"/>
+        <v>8.60023492048545E-3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>2.3386833426491624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1994</v>
+      </c>
+      <c r="C45" s="1">
+        <v>23753.53</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6839098123995209E-2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>2.2775557990749165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1995</v>
+      </c>
+      <c r="C46" s="1">
+        <v>24705.66</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0083726502966099E-2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>2.1897812080308721</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1996</v>
+      </c>
+      <c r="C47" s="1">
+        <v>25913.9</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8905392529485114E-2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>2.0876822863405353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>22</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1997</v>
+      </c>
+      <c r="C48" s="1">
+        <v>27426</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="1"/>
+        <v>5.8350923635577701E-2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1.9725803981623276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1998</v>
+      </c>
+      <c r="C49" s="1">
+        <v>28861.439999999999</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="1"/>
+        <v>5.2338656749070234E-2</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1.8744729992682279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C50" s="1">
+        <v>30469.84</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5728335107326554E-2</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1.7755258970838048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>19</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C51">
+        <v>32154.82</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5299929372782941E-2</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1.6824846166142431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C52" s="1">
+        <v>32921.919999999998</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3856454491115064E-2</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1.6432817405546214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>17</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C53" s="1">
+        <v>33252.089999999997</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0028880454116873E-2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1.6269651020432101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>16</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C54" s="1">
+        <v>34064.949999999997</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4445380726444643E-2</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1.5881423574671327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C55" s="1">
+        <v>35648.550000000003</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6487665474336692E-2</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1.5175930016788899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C56" s="1">
+        <v>36952.94</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="1"/>
+        <v>3.659026804736798E-2</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1.4640239721115558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C57" s="1">
+        <v>38651.410000000003</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5963054631106504E-2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>1.3996899466280788</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C58" s="1">
+        <v>40405.480000000003</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5381785554524434E-2</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>1.3389270465293319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C59" s="1">
+        <v>41334.97</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3004057865418259E-2</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>1.3088189007999762</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C60" s="1">
+        <v>40711.61</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5080693175778315E-2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>1.328859015892518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C61" s="1">
+        <v>41673.83</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3635026961596584E-2</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>1.2981765774827991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C62" s="1">
+        <v>42979.61</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1333333173360733E-2</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1.2587361774571708</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44321.67</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1225504372887514E-2</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>1.2206216507636107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44888.160000000003</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2781332472355134E-2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>1.2052173668958583</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C65" s="1">
+        <v>46481.52</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5496219938620621E-2</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>1.1639032028212504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C66" s="1">
+        <v>48098.63</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4790385512349919E-2</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E69" si="2">$C$70/C66</f>
+        <v>1.1247719529641489</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C67" s="1">
+        <v>48642.15</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1300113953349733E-2</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>1.1122039219072346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>1982</v>
-      </c>
-      <c r="B33" s="1">
-        <v>14531.34</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="0"/>
-        <v>5.5052239510349876E-2</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="5">
-        <f>AVERAGE(C33:C70)</f>
-        <v>3.6791508357074516E-2</v>
-      </c>
-      <c r="F33" s="4">
-        <f>_xlfn.STDEV.P(C33:C70)</f>
-        <v>1.6495650054927161E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>1983</v>
-      </c>
-      <c r="B34" s="1">
-        <v>15239.24</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="0"/>
-        <v>4.8715397203561439E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>1984</v>
-      </c>
-      <c r="B35" s="1">
-        <v>16135.07</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="0"/>
-        <v>5.8784427569878783E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>1985</v>
-      </c>
-      <c r="B36" s="1">
-        <v>16822.509999999998</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="0"/>
-        <v>4.2605331120348255E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>1986</v>
-      </c>
-      <c r="B37" s="1">
-        <v>17321.82</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9681064240710819E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>1987</v>
-      </c>
-      <c r="B38" s="1">
-        <v>18426.509999999998</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" si="0"/>
-        <v>6.3774476354101273E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>1988</v>
-      </c>
-      <c r="B39" s="1">
-        <v>19334.04</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9251323229412503E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>1989</v>
-      </c>
-      <c r="B40" s="1">
-        <v>20099.55</v>
-      </c>
-      <c r="C40" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9593897602363315E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>1990</v>
-      </c>
-      <c r="B41" s="1">
-        <v>21027.98</v>
-      </c>
-      <c r="C41" s="4">
-        <f t="shared" si="0"/>
-        <v>4.6191581403563831E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B42" s="1">
-        <v>21811.599999999999</v>
-      </c>
-      <c r="C42" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7265586138088391E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B43" s="1">
-        <v>22935.42</v>
-      </c>
-      <c r="C43" s="4">
-        <f t="shared" si="0"/>
-        <v>5.1523959727851176E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B44" s="1">
-        <v>23132.67</v>
-      </c>
-      <c r="C44" s="4">
-        <f t="shared" si="0"/>
-        <v>8.60023492048545E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B45" s="1">
-        <v>23753.53</v>
-      </c>
-      <c r="C45" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6839098123995209E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B46" s="1">
-        <v>24705.66</v>
-      </c>
-      <c r="C46" s="4">
-        <f t="shared" si="0"/>
-        <v>4.0083726502966099E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>1996</v>
-      </c>
-      <c r="B47" s="1">
-        <v>25913.9</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="0"/>
-        <v>4.8905392529485114E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B48" s="1">
-        <v>27426</v>
-      </c>
-      <c r="C48" s="4">
-        <f t="shared" si="0"/>
-        <v>5.8350923635577701E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B49" s="1">
-        <v>28861.439999999999</v>
-      </c>
-      <c r="C49" s="4">
-        <f t="shared" si="0"/>
-        <v>5.2338656749070234E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B50" s="1">
-        <v>30469.84</v>
-      </c>
-      <c r="C50" s="4">
-        <f t="shared" si="0"/>
-        <v>5.5728335107326554E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B51">
-        <v>32154.82</v>
-      </c>
-      <c r="C51" s="4">
-        <f t="shared" si="0"/>
-        <v>5.5299929372782941E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B52" s="1">
-        <v>32921.919999999998</v>
-      </c>
-      <c r="C52" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3856454491115064E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B53" s="1">
-        <v>33252.089999999997</v>
-      </c>
-      <c r="C53" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0028880454116873E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B54" s="1">
-        <v>34064.949999999997</v>
-      </c>
-      <c r="C54" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4445380726444643E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B55" s="1">
-        <v>35648.550000000003</v>
-      </c>
-      <c r="C55" s="4">
-        <f t="shared" si="0"/>
-        <v>4.6487665474336692E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B56" s="1">
-        <v>36952.94</v>
-      </c>
-      <c r="C56" s="4">
-        <f t="shared" si="0"/>
-        <v>3.659026804736798E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B57" s="1">
-        <v>38651.410000000003</v>
-      </c>
-      <c r="C57" s="4">
-        <f t="shared" si="0"/>
-        <v>4.5963054631106504E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B58" s="1">
-        <v>40405.480000000003</v>
-      </c>
-      <c r="C58" s="4">
-        <f t="shared" si="0"/>
-        <v>4.5381785554524434E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B59" s="1">
-        <v>41334.97</v>
-      </c>
-      <c r="C59" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3004057865418259E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B60" s="1">
-        <v>40711.61</v>
-      </c>
-      <c r="C60" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.5080693175778315E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B61" s="1">
-        <v>41673.83</v>
-      </c>
-      <c r="C61" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3635026961596584E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B62" s="1">
-        <v>42979.61</v>
-      </c>
-      <c r="C62" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1333333173360733E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B63" s="1">
-        <v>44321.67</v>
-      </c>
-      <c r="C63" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1225504372887514E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B64" s="1">
-        <v>44888.160000000003</v>
-      </c>
-      <c r="C64" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2781332472355134E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B65" s="1">
-        <v>46481.52</v>
-      </c>
-      <c r="C65" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5496219938620621E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B66" s="1">
-        <v>48098.63</v>
-      </c>
-      <c r="C66" s="4">
-        <f t="shared" si="0"/>
-        <v>3.4790385512349919E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B67" s="1">
-        <v>48642.15</v>
-      </c>
-      <c r="C67" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1300113953349733E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="B68" s="2">
         <v>2017</v>
       </c>
-      <c r="B68" s="1">
+      <c r="C68" s="1">
         <v>50321.89</v>
       </c>
-      <c r="C68" s="4">
-        <f t="shared" ref="C68:C70" si="1">B68/B67-1</f>
+      <c r="D68" s="4">
+        <f t="shared" ref="D68:D70" si="3">C68/C67-1</f>
         <v>3.4532601868955126E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>1.0750786586115904</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2">
         <v>2018</v>
       </c>
-      <c r="B69" s="1">
+      <c r="C69" s="1">
         <v>52145.8</v>
       </c>
-      <c r="C69" s="4">
-        <f t="shared" si="1"/>
+      <c r="D69" s="4">
+        <f t="shared" si="3"/>
         <v>3.6244862822123691E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="E69">
+        <f>$C$70/C69</f>
+        <v>1.0374755013826615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
         <v>2019</v>
       </c>
-      <c r="B70" s="1">
+      <c r="C70" s="1">
         <v>54099.99</v>
       </c>
-      <c r="C70" s="4">
-        <f t="shared" si="1"/>
+      <c r="D70" s="4">
+        <f t="shared" si="3"/>
         <v>3.7475501382661536E-2</v>
       </c>
+      <c r="E70">
+        <f>$C$70/C70</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{C2DD2298-9221-43A6-891A-0C063888BCD0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B70">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="B1:C1" xr:uid="{C2DD2298-9221-43A6-891A-0C063888BCD0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C70">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B9ACBC-5E51-40AC-A074-113DEC81FDF6}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1989</v>
+      </c>
+      <c r="C1" s="7">
+        <v>339</v>
+      </c>
+      <c r="D1" s="8">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1990</v>
+      </c>
+      <c r="C2" s="7">
+        <v>356</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2145</v>
+      </c>
+      <c r="E2" s="9">
+        <f>D2-D1</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1991</v>
+      </c>
+      <c r="C3" s="7">
+        <v>370</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2230</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E33" si="0">D3-D2</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1992</v>
+      </c>
+      <c r="C4" s="7">
+        <v>387</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2333</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1993</v>
+      </c>
+      <c r="C5" s="7">
+        <v>401</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2420</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1994</v>
+      </c>
+      <c r="C6" s="7">
+        <v>422</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2545</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1995</v>
+      </c>
+      <c r="C7" s="7">
+        <v>426</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2567</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1996</v>
+      </c>
+      <c r="C8" s="7">
+        <v>437</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2635</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1997</v>
+      </c>
+      <c r="C9" s="7">
+        <v>455</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2741</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1998</v>
+      </c>
+      <c r="C10" s="7">
+        <v>477</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2875</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1999</v>
+      </c>
+      <c r="C11" s="7">
+        <v>505</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3043</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="7">
+        <v>531</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3202</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2001</v>
+      </c>
+      <c r="C13" s="7">
+        <v>561</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3381</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2002</v>
+      </c>
+      <c r="C14" s="7">
+        <v>592</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3567</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2003</v>
+      </c>
+      <c r="C15" s="7">
+        <v>606</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3653</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2004</v>
+      </c>
+      <c r="C16" s="7">
+        <v>612</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3689</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2005</v>
+      </c>
+      <c r="C17" s="7">
+        <v>627</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3779</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2006</v>
+      </c>
+      <c r="C18" s="7">
+        <v>656</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3955</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2007</v>
+      </c>
+      <c r="C19" s="7">
+        <v>680</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4100</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2008</v>
+      </c>
+      <c r="C20" s="7">
+        <v>711</v>
+      </c>
+      <c r="D20" s="8">
+        <v>4288</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2009</v>
+      </c>
+      <c r="C21" s="7">
+        <v>744</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4483</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2010</v>
+      </c>
+      <c r="C22" s="7">
+        <v>761</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4586</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2011</v>
+      </c>
+      <c r="C23" s="7">
+        <v>749</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4517</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2012</v>
+      </c>
+      <c r="C24" s="7">
+        <v>767</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4624</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2013</v>
+      </c>
+      <c r="C25" s="7">
+        <v>791</v>
+      </c>
+      <c r="D25" s="8">
+        <v>4768</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2014</v>
+      </c>
+      <c r="C26" s="7">
+        <v>816</v>
+      </c>
+      <c r="D26" s="8">
+        <v>4917</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C27" s="7">
+        <v>826</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4980</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C28" s="7">
+        <v>856</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5157</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C29" s="7">
+        <v>885</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5336</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C30" s="7">
+        <v>895</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5397</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C31" s="7">
+        <v>926</v>
+      </c>
+      <c r="D31" s="8">
+        <v>5583</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C32" s="7">
+        <v>960</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5785</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C33" s="7">
+        <v>996</v>
+      </c>
+      <c r="D33" s="8">
+        <v>6002</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f>996+($A34*(0.33*$A34+25))</f>
+        <v>1021.33</v>
+      </c>
+      <c r="D34">
+        <f>6002+($A34*(1.99*$A34+155))</f>
+        <v>6158.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <f>996+(A35*(0.33*A35+25))</f>
+        <v>1047.32</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D61" si="1">6002+($A35*(1.99*$A35+155))</f>
+        <v>6319.96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C47" si="2">996+(A36*(0.33*A36+25))</f>
+        <v>1073.97</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>6484.91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>1101.28</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>6653.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>1129.25</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>6826.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>1157.8800000000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>7003.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>1187.17</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>7184.51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>1217.1199999999999</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>7369.36</v>
+      </c>
+      <c r="F41">
+        <f>$A61*(1.99*$A61+155)</f>
+        <v>5900.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>1247.73</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>7558.1900000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>1279</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>7751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>1310.93</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>7947.79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>1343.52</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>8148.5599999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>1376.77</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>8353.31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>1410.68</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>8562.0400000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:C61" si="3">996+(A48*(0.33*A48+25))</f>
+        <v>1445.25</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>8774.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>1480.48</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>8991.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>1516.37</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>9212.11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>1552.92</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>9436.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>1590.13</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>9665.39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>1628</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>9898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>1666.53</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>10134.59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>1705.7199999999998</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>10375.16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>1745.5700000000002</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>10619.71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>1786.08</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>10868.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>1827.25</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>11120.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>1869.08</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>11377.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="3"/>
+        <v>1911.57</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>11637.71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="3"/>
+        <v>1954.72</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>11902.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791A0667-5B71-46D0-A763-D4802649E5FC}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="11">
+        <v>142800</v>
+      </c>
+      <c r="D1" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="14">
+        <v>137700</v>
+      </c>
+      <c r="D2" s="15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="11">
+        <v>132900</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="14">
+        <v>128400</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="11">
+        <v>127200</v>
+      </c>
+      <c r="D5" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="14">
+        <v>118500</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C7" s="11">
+        <v>118500</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="14">
+        <v>117000</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C9" s="11">
+        <v>113700</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2012</v>
+      </c>
+      <c r="C10" s="14">
+        <v>110100</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C11" s="11">
+        <v>106800</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="14">
+        <v>106800</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A9681B-0439-4A29-B4EB-B5E8648CEEFD}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C35" sqref="C24:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1987</v>
+      </c>
+      <c r="C1" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1988</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1989</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1990</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1991</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1992</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1993</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1994</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1995</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1996</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1997</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1998</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2002</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2003</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2005</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2006</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2007</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2008</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2009</v>
+      </c>
+      <c r="C23" s="5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2010</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2011</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2012</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2013</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2014</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2015</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2016</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2017</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2019</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2021</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>